--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="149">
   <si>
     <t>土地坐落</t>
   </si>
@@ -337,6 +337,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>春源鋼鐵工業股份有限公 司</t>
   </si>
   <si>
@@ -344,6 +353,9 @@
   </si>
   <si>
     <t>中華開發金融控股股份有 限公司</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
   </si>
   <si>
     <t>名</t>
@@ -1867,13 +1879,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1892,13 +1904,22 @@
       <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1915,13 +1936,22 @@
       <c r="G2" s="2">
         <v>8800</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1938,13 +1968,22 @@
       <c r="G3" s="2">
         <v>4090</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -1960,6 +1999,15 @@
       </c>
       <c r="G4" s="2">
         <v>170440</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1706</v>
       </c>
     </row>
   </sheetData>
@@ -1977,22 +2025,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2000,14 +2048,14 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2017,22 +2065,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2050,16 +2098,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2067,16 +2115,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2084,16 +2132,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2101,16 +2149,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2118,16 +2166,16 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2145,22 +2193,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2171,19 +2219,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2">
         <v>161450</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="151">
   <si>
     <t>土地坐落</t>
   </si>
@@ -337,6 +337,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -346,13 +349,16 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>春源鋼鐵工業股份有限公 司</t>
+    <t>春源鋼鐵工業股份有限公司</t>
   </si>
   <si>
     <t>寶成工業股份有限公司</t>
   </si>
   <si>
-    <t>中華開發金融控股股份有 限公司</t>
+    <t>中華開發金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-18</t>
@@ -1879,13 +1885,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1913,13 +1919,16 @@
       <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1937,21 +1946,24 @@
         <v>8800</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="2">
+        <v>113</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2">
         <v>1706</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1969,21 +1981,24 @@
         <v>4090</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="2">
+        <v>113</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2">
         <v>1706</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -2001,12 +2016,15 @@
         <v>170440</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="2">
+        <v>113</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2">
         <v>1706</v>
       </c>
     </row>
@@ -2025,22 +2043,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2048,14 +2066,14 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2065,22 +2083,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2098,16 +2116,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2115,16 +2133,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2132,16 +2150,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2149,16 +2167,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2166,16 +2184,16 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2193,22 +2211,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2219,19 +2237,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2">
         <v>161450</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="156">
   <si>
     <t>土地坐落</t>
   </si>
@@ -340,6 +340,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -349,6 +352,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>春源鋼鐵工業股份有限公司</t>
   </si>
   <si>
@@ -361,7 +370,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>tmp80511</t>
   </si>
   <si>
     <t>名</t>
@@ -1885,13 +1900,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1922,13 +1937,22 @@
       <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1946,24 +1970,33 @@
         <v>8800</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="2">
+        <v>117</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2">
         <v>1706</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1981,24 +2014,33 @@
         <v>4090</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="2">
+        <v>117</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2">
         <v>1706</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -2016,16 +2058,25 @@
         <v>170440</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="2">
+        <v>117</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2">
         <v>1706</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2043,22 +2094,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2066,14 +2117,14 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2083,22 +2134,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2116,16 +2167,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2133,16 +2184,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2150,16 +2201,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2167,16 +2218,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2184,16 +2235,16 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2211,22 +2262,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2237,19 +2288,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2">
         <v>161450</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -20,9 +20,282 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="156">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="160">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮橋頭段北勢坑小段03040004地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮文昌段03510000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮文昌段03520000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮廣明段07510000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮廣明段07560001地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮廣明段07570000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04650000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04600001地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04670000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04670004地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04670005地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04680002地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04680003地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04930001</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段04990000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段05000000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段05270000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段05280000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段05350000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段06470012地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段06470013地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮營子段00070000地號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮營子段01930001地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470008地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470013地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470016地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470028地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470035地號</t>
+  </si>
+  <si>
+    <t>臺中市北區錦村段01470041地號</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>99989分之41355</t>
+  </si>
+  <si>
+    <t>99989分之307</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>3分之2</t>
+  </si>
+  <si>
+    <t>36分之1</t>
+  </si>
+  <si>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>30分之2</t>
+  </si>
+  <si>
+    <t>5分之2</t>
+  </si>
+  <si>
+    <t>10分之1</t>
+  </si>
+  <si>
+    <t>150分之2</t>
+  </si>
+  <si>
+    <t>林明溱</t>
+  </si>
+  <si>
+    <t>陳麗珠</t>
+  </si>
+  <si>
+    <t>94年12月21日</t>
+  </si>
+  <si>
+    <t>70年04月03曰</t>
+  </si>
+  <si>
+    <t>70年04月03日</t>
+  </si>
+  <si>
+    <t>95年01月05日</t>
+  </si>
+  <si>
+    <t>91年09月03日</t>
+  </si>
+  <si>
+    <t>65年06月07日</t>
+  </si>
+  <si>
+    <t>94年06月22日</t>
+  </si>
+  <si>
+    <t>65年06月</t>
+  </si>
+  <si>
+    <t>65年06月07曰</t>
+  </si>
+  <si>
+    <t>85年05月20日</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>共有物分割.</t>
+  </si>
+  <si>
+    <t>55084(超過五年）</t>
+  </si>
+  <si>
+    <t>1271064(超過五年）</t>
+  </si>
+  <si>
+    <t>3515175(田）</t>
+  </si>
+  <si>
+    <t>26095(道）</t>
+  </si>
+  <si>
+    <t>2956408(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>895776(超過五年）</t>
+  </si>
+  <si>
+    <t>66517(超過五年）</t>
+  </si>
+  <si>
+    <t>18430(超過五年）</t>
+  </si>
+  <si>
+    <t>466323(超過五年）</t>
+  </si>
+  <si>
+    <t>584256(超過五年）</t>
+  </si>
+  <si>
+    <t>44460(超過五年）</t>
+  </si>
+  <si>
+    <t>44543(超過五年）</t>
+  </si>
+  <si>
+    <t>100989(超過五年）</t>
+  </si>
+  <si>
+    <t>104894(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>tmp80511</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,241 +316,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>南投縣集集鎮橋頭段北勢坑小 段0304-0004地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮文昌段0351 -0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮文昌段0352-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮廣明段0751 -0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮廣明段0756-0001 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮廣明段0757-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0465 - 0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0460-0001 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0467 - 0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0467 - 0004 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0467-0005 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0468 - 0002 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0468-0003 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0493-0001</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0499-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0500-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0527-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0528-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0535 - 0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0647-0012 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段0647-0013 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮營子段0007 - 0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮營子段0193-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0008 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0013 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0016 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0028 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0035 地號</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段0147-0041 地號</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>99989分之 41355</t>
-  </si>
-  <si>
-    <t>99989分之 307</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>3分之2</t>
-  </si>
-  <si>
-    <t>36分之1</t>
-  </si>
-  <si>
-    <t>12分之1</t>
-  </si>
-  <si>
-    <t>30分之2</t>
-  </si>
-  <si>
-    <t>5分之2</t>
-  </si>
-  <si>
-    <t>10分之1</t>
-  </si>
-  <si>
-    <t>150分之2</t>
-  </si>
-  <si>
-    <t>林明溱</t>
-  </si>
-  <si>
-    <t>陳麗珠</t>
-  </si>
-  <si>
-    <t>94年12月 21日</t>
-  </si>
-  <si>
-    <t>70年04月 03曰</t>
-  </si>
-  <si>
-    <t>70年04月 03日</t>
-  </si>
-  <si>
-    <t>95年01月 05日</t>
-  </si>
-  <si>
-    <t>91年09月 03日</t>
-  </si>
-  <si>
-    <t>65年06月 07日</t>
-  </si>
-  <si>
-    <t>94年06月 22日</t>
-  </si>
-  <si>
-    <t>65年06月</t>
-  </si>
-  <si>
-    <t>65年06月 07曰</t>
-  </si>
-  <si>
-    <t>85年05月 20日</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>共有物分 割.</t>
-  </si>
-  <si>
-    <t>55,084(超過五 年）</t>
-  </si>
-  <si>
-    <t>1,271,064(超 過五年）</t>
-  </si>
-  <si>
-    <t>3’515’175(田）</t>
-  </si>
-  <si>
-    <t>26’095(道）</t>
-  </si>
-  <si>
-    <t>2，956，408(超 過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>895,776(超過 五年）</t>
-  </si>
-  <si>
-    <t>66，517(超過五 年）</t>
-  </si>
-  <si>
-    <t>18，430(超過五 年）</t>
-  </si>
-  <si>
-    <t>466,323 (超過 五年）</t>
-  </si>
-  <si>
-    <t>584，256(超過 五年）</t>
-  </si>
-  <si>
-    <t>44,460 (超過五 年）</t>
-  </si>
-  <si>
-    <t>44，543(超過五 年）</t>
-  </si>
-  <si>
-    <t>100，989(超過 五年）</t>
-  </si>
-  <si>
-    <t>104,894(超過 五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺中市北區錦村段14340-000建 號</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮八張段00280-000 建號</t>
-  </si>
-  <si>
-    <t>94年04月 14日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>851，264(超過 五年）</t>
+    <t>臺中市北區錦村段14340000建號</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮八張段00280000建號</t>
+  </si>
+  <si>
+    <t>94年04月14日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>851264(超過五年）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -307,7 +358,7 @@
     <t>臺灣銀行南投分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行集集分 行</t>
+    <t>合作金庫商業銀行集集分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -319,12 +370,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -337,27 +382,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>春源鋼鐵工業股份有限公司</t>
   </si>
   <si>
@@ -370,15 +394,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-18</t>
-  </si>
-  <si>
-    <t>tmp80511</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -397,22 +412,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董'字晝及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總洛</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字晝及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總洛</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>t額：新臺幣 元）</t>
+    <t>t額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -439,28 +454,28 @@
     <t>南山人壽</t>
   </si>
   <si>
-    <t>國泰人壽鍾愛終身壽險(分期 繳納）</t>
-  </si>
-  <si>
-    <t>國泰住院醫療終身健康保險 (分期缴納）</t>
-  </si>
-  <si>
-    <t>國泰福壽養老保險（分期繳 納）</t>
-  </si>
-  <si>
-    <t>南山康寧終身壽險（分期繳 納）</t>
-  </si>
-  <si>
-    <t>573,565 元/10 期 47,740 元， 第11期48，082元，第12期 48,083元</t>
-  </si>
-  <si>
-    <t>84,840 元/12 次 7,070 元</t>
-  </si>
-  <si>
-    <t>407，100 元/第 59 次</t>
-  </si>
-  <si>
-    <t>816,219 元/16 期 47,977.元； 第17期48,587元</t>
+    <t>國泰人壽鍾愛終身壽險(分期繳納）</t>
+  </si>
+  <si>
+    <t>國泰住院醫療終身健康保險(分期缴納）</t>
+  </si>
+  <si>
+    <t>國泰福壽養老保險（分期繳納）</t>
+  </si>
+  <si>
+    <t>南山康寧終身壽險（分期繳納）</t>
+  </si>
+  <si>
+    <t>573565元10期47740元第11期48082元第12期48083元</t>
+  </si>
+  <si>
+    <t>84840元12次7070元</t>
+  </si>
+  <si>
+    <t>407100元第59次</t>
+  </si>
+  <si>
+    <t>816219元16期47977.元第17期48587元</t>
   </si>
   <si>
     <t>投資人</t>
@@ -481,13 +496,10 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>中華開發金融控股股份有限 公司</t>
-  </si>
-  <si>
     <t>南投縣中山街202號4樓</t>
   </si>
   <si>
-    <t>89年10月 05日</t>
+    <t>89年10月05日</t>
   </si>
 </sst>
 </file>
@@ -846,13 +858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,785 +886,1436 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>5.86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>178.42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>49.35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2">
         <v>104869</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>999.89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>999.89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>47.25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
         <v>86751</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>527.93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>2.89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>159.96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>14.27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>4.85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>73.63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>92.69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
         <v>14.19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
         <v>143.68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>9.53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>59.1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2">
         <v>43.52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2">
         <v>19.55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>7.02</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>9.9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>182.51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <v>21.32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <v>292</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>636</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2">
         <v>579</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1670,25 +2333,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1696,25 +2359,25 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2">
         <v>70.07</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1722,25 +2385,25 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2">
         <v>181.12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1758,19 +2421,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1778,16 +2441,16 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2">
         <v>2203088</v>
@@ -1798,16 +2461,16 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2">
         <v>49097.6</v>
@@ -1818,16 +2481,16 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2">
         <v>255045</v>
@@ -1838,16 +2501,16 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2">
         <v>88850</v>
@@ -1858,16 +2521,16 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2">
         <v>121227</v>
@@ -1878,16 +2541,16 @@
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2">
         <v>655187</v>
@@ -1908,43 +2571,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1952,10 +2615,10 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2">
         <v>880</v>
@@ -1964,28 +2627,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2">
         <v>8800</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2">
         <v>1706</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="N2" s="2">
         <v>90</v>
@@ -1996,10 +2659,10 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2">
         <v>409</v>
@@ -2008,28 +2671,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>4090</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2">
         <v>1706</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2">
         <v>91</v>
@@ -2040,10 +2703,10 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
         <v>17044</v>
@@ -2052,28 +2715,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2">
         <v>170440</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2">
         <v>1706</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2">
         <v>92</v>
@@ -2094,22 +2757,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2117,14 +2780,14 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2134,22 +2797,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2167,16 +2830,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2184,16 +2847,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2201,16 +2864,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2218,16 +2881,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2235,16 +2898,16 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2262,22 +2925,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2285,22 +2948,22 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2">
         <v>161450</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>南投縣集集鎮橋頭段北勢坑小段03040004地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>南投縣集集鎮文昌段03510000地號</t>
@@ -151,9 +154,6 @@
     <t>臺中市北區錦村段01470041地號</t>
   </si>
   <si>
-    <t>3分之1</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -196,9 +196,6 @@
     <t>陳麗珠</t>
   </si>
   <si>
-    <t>94年12月21日</t>
-  </si>
-  <si>
     <t>70年04月03曰</t>
   </si>
   <si>
@@ -226,12 +223,12 @@
     <t>85年05月20日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>共有物分割</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -295,27 +292,6 @@
     <t>tmp80511</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺中市北區錦村段14340000建號</t>
   </si>
   <si>
@@ -331,132 +307,87 @@
     <t>851264(超過五年）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
+    <t>集集郵局（第9k局）</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>南投縣集集鎮農會信用部</t>
+  </si>
+  <si>
+    <t>集集郵局（第9支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行南投分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行集集分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>寶成工業股份有限公司</t>
+  </si>
+  <si>
+    <t>中華開發金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字晝及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總洛</t>
+  </si>
+  <si>
+    <t>t額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>集集郵局（第9k局）</t>
-  </si>
-  <si>
-    <t>南投縣集集鎮農會信用部</t>
-  </si>
-  <si>
-    <t>集集郵局（第9支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行南投分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行集集分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>春源鋼鐵工業股份有限公司</t>
-  </si>
-  <si>
-    <t>寶成工業股份有限公司</t>
-  </si>
-  <si>
-    <t>中華開發金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總洛</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>t額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>國泰人壽鍾愛終身壽險(分期繳納）</t>
+  </si>
+  <si>
+    <t>573565元10期47740元第11期48082元第12期48083元</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
-    <t>國泰人壽鍾愛終身壽險(分期繳納）</t>
-  </si>
-  <si>
     <t>國泰住院醫療終身健康保險(分期缴納）</t>
   </si>
   <si>
@@ -466,9 +397,6 @@
     <t>南山康寧終身壽險（分期繳納）</t>
   </si>
   <si>
-    <t>573565元10期47740元第11期48082元第12期48083元</t>
-  </si>
-  <si>
     <t>84840元12次7070元</t>
   </si>
   <si>
@@ -478,28 +406,13 @@
     <t>816219元16期47977.元第17期48587元</t>
   </si>
   <si>
-    <t>投資人</t>
+    <t>南投縣中山街202號4樓</t>
+  </si>
+  <si>
+    <t>89年10月05日</t>
   </si>
   <si>
     <t>投資</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>南投縣中山街202號4樓</t>
-  </si>
-  <si>
-    <t>89年10月05日</t>
   </si>
 </sst>
 </file>
@@ -858,13 +771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,19 +820,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3000</v>
+        <v>5.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>56</v>
@@ -928,19 +847,19 @@
         <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="2">
-        <v>27000</v>
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>56</v>
@@ -949,21 +868,27 @@
         <v>1706</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>5.86</v>
+        <v>178.42</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -975,19 +900,19 @@
         <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>56</v>
@@ -996,24 +921,30 @@
         <v>1706</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>178.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>178.42</v>
+        <v>49.35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>56</v>
@@ -1022,66 +953,72 @@
         <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2">
+        <v>104869</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>12.3375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>999.89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>49.35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="2">
-        <v>104869</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>56</v>
@@ -1090,30 +1027,36 @@
         <v>1706</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.413595495504505</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>413.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>999.89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>68</v>
@@ -1122,13 +1065,13 @@
         <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>56</v>
@@ -1137,45 +1080,51 @@
         <v>1706</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00307033773715109</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>999.89</v>
+        <v>47.25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>75</v>
+      <c r="H7" s="2">
+        <v>86751</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>56</v>
@@ -1184,24 +1133,30 @@
         <v>1706</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>11.8125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>47.25</v>
+        <v>527.93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>56</v>
@@ -1212,17 +1167,17 @@
       <c r="G8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="2">
-        <v>86751</v>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>56</v>
@@ -1231,24 +1186,30 @@
         <v>1706</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>527.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>527.93</v>
+        <v>2.89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>56</v>
@@ -1257,19 +1218,19 @@
         <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>56</v>
@@ -1278,45 +1239,51 @@
         <v>1706</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.481666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>2.89</v>
+        <v>159.96</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>56</v>
@@ -1325,30 +1292,36 @@
         <v>1706</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>159.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>159.96</v>
+        <v>14.27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>68</v>
@@ -1357,13 +1330,13 @@
         <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>56</v>
@@ -1372,21 +1345,27 @@
         <v>1706</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>9.51333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>14.27</v>
+        <v>4.85</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>49</v>
@@ -1395,7 +1374,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>68</v>
@@ -1404,13 +1383,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>56</v>
@@ -1419,21 +1398,27 @@
         <v>1706</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.23333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>4.85</v>
+        <v>73.63</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>49</v>
@@ -1442,7 +1427,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>68</v>
@@ -1451,13 +1436,13 @@
         <v>80</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>56</v>
@@ -1466,21 +1451,27 @@
         <v>1706</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>49.0866666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
-        <v>73.63</v>
+        <v>92.69</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>49</v>
@@ -1489,7 +1480,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>68</v>
@@ -1498,13 +1489,13 @@
         <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>56</v>
@@ -1513,24 +1504,30 @@
         <v>1706</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>61.7933333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>92.69</v>
+        <v>14.19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>56</v>
@@ -1539,19 +1536,19 @@
         <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>56</v>
@@ -1560,45 +1557,51 @@
         <v>1706</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2.365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>14.19</v>
+        <v>143.68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>56</v>
@@ -1607,21 +1610,27 @@
         <v>1706</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3.99111111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>143.68</v>
+        <v>9.53</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
@@ -1630,22 +1639,22 @@
         <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>56</v>
@@ -1654,68 +1663,80 @@
         <v>1706</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O17" s="2">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.264722222222222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
+      <c r="C18" s="2">
+        <v>59.1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="2">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4.925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.53</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="2">
-        <v>59.1</v>
+        <v>43.52</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>51</v>
@@ -1724,22 +1745,22 @@
         <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>56</v>
@@ -1748,71 +1769,83 @@
         <v>1706</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O19" s="2">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>3.62666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
+      <c r="C20" s="2">
+        <v>19.55</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="2">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>3.25833333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2">
-        <v>43.52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" s="2">
-        <v>19.55</v>
+        <v>7.02</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1821,19 +1854,19 @@
         <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>56</v>
@@ -1842,21 +1875,27 @@
         <v>1706</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O21" s="2">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C22" s="2">
-        <v>7.02</v>
+        <v>9.9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>49</v>
@@ -1865,7 +1904,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>68</v>
@@ -1874,13 +1913,13 @@
         <v>83</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>56</v>
@@ -1889,45 +1928,51 @@
         <v>1706</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O22" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C23" s="2">
-        <v>9.9</v>
+        <v>182.51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>84</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>56</v>
@@ -1936,45 +1981,51 @@
         <v>1706</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O23" s="2">
+        <v>38</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>12.1673333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C24" s="2">
-        <v>182.51</v>
+        <v>21.32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>56</v>
@@ -1983,92 +2034,104 @@
         <v>1706</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O24" s="2">
+        <v>39</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>8.528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
+      <c r="C25" s="2">
+        <v>292</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" s="2">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="2">
-        <v>21.32</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O25" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C26" s="2">
-        <v>292</v>
+        <v>636</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>56</v>
@@ -2077,21 +2140,27 @@
         <v>1706</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O26" s="2">
+        <v>41</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C27" s="2">
-        <v>636</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>55</v>
@@ -2100,22 +2169,22 @@
         <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>56</v>
@@ -2124,45 +2193,51 @@
         <v>1706</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="2">
+        <v>42</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C28" s="2">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>56</v>
@@ -2171,45 +2246,51 @@
         <v>1706</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="2">
+        <v>43</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C29" s="2">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>56</v>
@@ -2218,21 +2299,27 @@
         <v>1706</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="2">
+        <v>44</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>579</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>55</v>
@@ -2241,22 +2328,22 @@
         <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>56</v>
@@ -2265,57 +2352,16 @@
         <v>1706</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="2">
-        <v>579</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" s="2">
-        <v>1706</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="2">
-        <v>45</v>
+      <c r="P30" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>7.72</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +2371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2333,36 +2379,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="C1" s="1">
+        <v>70.07</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2">
-        <v>70.07</v>
+        <v>181.12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
@@ -2371,39 +2417,13 @@
         <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2">
-        <v>181.12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2421,138 +2441,118 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2203088</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="2">
-        <v>2203088</v>
+        <v>49097.6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2">
-        <v>49097.6</v>
+        <v>255045</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="2">
-        <v>255045</v>
+        <v>88850</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="2">
-        <v>88850</v>
+        <v>121227</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="2">
-        <v>121227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="2">
         <v>655187</v>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2577,16 +2577,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2612,34 +2612,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="2">
-        <v>880</v>
+        <v>409</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2">
-        <v>8800</v>
+        <v>4090</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>56</v>
@@ -2648,42 +2648,42 @@
         <v>1706</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N2" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2">
-        <v>409</v>
+        <v>17044</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2">
-        <v>4090</v>
+        <v>170440</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>56</v>
@@ -2692,53 +2692,9 @@
         <v>1706</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2">
-        <v>17044</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="2">
-        <v>170440</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1706</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2748,174 +2704,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>110</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>116</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>117</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>118</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>119</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2925,45 +2713,150 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="2">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1">
         <v>161450</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>153</v>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>南投縣集集鎮橋頭段北勢坑小段03040004地號</t>
+  </si>
+  <si>
     <t>南投縣集集鎮文昌段03510000地號</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>臺中市北區錦村段01470041地號</t>
   </si>
   <si>
+    <t>3分之1</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t>陳麗珠</t>
   </si>
   <si>
+    <t>94年12月21日</t>
+  </si>
+  <si>
     <t>70年04月03曰</t>
   </si>
   <si>
@@ -223,12 +232,12 @@
     <t>85年05月20日</t>
   </si>
   <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>共有物分割</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>春源鋼鐵工業股份有限公司</t>
   </si>
   <si>
     <t>寶成工業股份有限公司</t>
@@ -771,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,1538 +841,1591 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>5.86</v>
+        <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="H2" s="2">
+        <v>27000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M2" s="2">
         <v>1706</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q2" s="2">
-        <v>5.86</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>178.42</v>
+        <v>5.86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" s="2">
         <v>1706</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>178.42</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>49.35</v>
+        <v>178.42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2">
-        <v>104869</v>
+        <v>71</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M4" s="2">
         <v>1706</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>12.3375</v>
+        <v>178.42</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>999.89</v>
+        <v>49.35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="H5" s="2">
+        <v>104869</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M5" s="2">
         <v>1706</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.413595495504505</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" s="2">
-        <v>413.55</v>
+        <v>12.3375</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>999.89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M6" s="2">
         <v>1706</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.00307033773715109</v>
+        <v>0.413595495504505</v>
       </c>
       <c r="Q6" s="2">
-        <v>3.07</v>
+        <v>413.55</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>47.25</v>
+        <v>999.89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="2">
-        <v>86751</v>
+        <v>70</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2">
         <v>1706</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.25</v>
+        <v>0.00307033773715109</v>
       </c>
       <c r="Q7" s="2">
-        <v>11.8125</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>527.93</v>
+        <v>47.25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="H8" s="2">
+        <v>86751</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M8" s="2">
         <v>1706</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q8" s="2">
-        <v>527.93</v>
+        <v>11.8125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>2.89</v>
+        <v>527.93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M9" s="2">
         <v>1706</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>0.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.481666666666667</v>
+        <v>527.93</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>159.96</v>
+        <v>2.89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M10" s="2">
         <v>1706</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q10" s="2">
-        <v>159.96</v>
+        <v>0.481666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>14.27</v>
+        <v>159.96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="2">
         <v>1706</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>9.51333333333333</v>
+        <v>159.96</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>4.85</v>
+        <v>14.27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M12" s="2">
         <v>1706</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.666666666666667</v>
       </c>
       <c r="Q12" s="2">
-        <v>3.23333333333333</v>
+        <v>9.51333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>73.63</v>
+        <v>4.85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M13" s="2">
         <v>1706</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>0.666666666666667</v>
       </c>
       <c r="Q13" s="2">
-        <v>49.0866666666667</v>
+        <v>3.23333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2">
-        <v>92.69</v>
+        <v>73.63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M14" s="2">
         <v>1706</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>0.666666666666667</v>
       </c>
       <c r="Q14" s="2">
-        <v>61.7933333333333</v>
+        <v>49.0866666666667</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>14.19</v>
+        <v>92.69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M15" s="2">
         <v>1706</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q15" s="2">
-        <v>2.365</v>
+        <v>61.7933333333333</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>143.68</v>
+        <v>14.19</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M16" s="2">
         <v>1706</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0277777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q16" s="2">
-        <v>3.99111111111111</v>
+        <v>2.365</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2">
-        <v>9.53</v>
+        <v>143.68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M17" s="2">
         <v>1706</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>0.0277777777777778</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.264722222222222</v>
+        <v>3.99111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>59.1</v>
+        <v>9.53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M18" s="2">
         <v>1706</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0833333333333333</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Q18" s="2">
-        <v>4.925</v>
+        <v>0.264722222222222</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>43.52</v>
+        <v>59.1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M19" s="2">
         <v>1706</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q19" s="2">
-        <v>3.62666666666667</v>
+        <v>4.925</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="2">
-        <v>19.55</v>
+        <v>43.52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M20" s="2">
         <v>1706</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q20" s="2">
-        <v>3.25833333333333</v>
+        <v>3.62666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>7.02</v>
+        <v>19.55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M21" s="2">
         <v>1706</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O21" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="2">
-        <v>0.666666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q21" s="2">
-        <v>4.68</v>
+        <v>3.25833333333333</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>9.9</v>
+        <v>7.02</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M22" s="2">
         <v>1706</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="2">
         <v>0.666666666666667</v>
       </c>
       <c r="Q22" s="2">
-        <v>6.6</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
-        <v>182.51</v>
+        <v>9.9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M23" s="2">
         <v>1706</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O23" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="2">
-        <v>0.0666666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q23" s="2">
-        <v>12.1673333333333</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="2">
-        <v>21.32</v>
+        <v>182.51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M24" s="2">
         <v>1706</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O24" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2">
-        <v>0.4</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q24" s="2">
-        <v>8.528</v>
+        <v>12.1673333333333</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>292</v>
+        <v>21.32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M25" s="2">
         <v>1706</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O25" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Q25" s="2">
-        <v>29.2</v>
+        <v>8.528</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="2">
-        <v>636</v>
+        <v>292</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M26" s="2">
         <v>1706</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O26" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" s="2">
-        <v>0.0133333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="Q26" s="2">
-        <v>8.48</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="2">
-        <v>21</v>
+        <v>636</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M27" s="2">
         <v>1706</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O27" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="2">
         <v>0.0133333333333333</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.28</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="2">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M28" s="2">
         <v>1706</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="2">
-        <v>0.1</v>
+        <v>0.0133333333333333</v>
       </c>
       <c r="Q28" s="2">
-        <v>5.6</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M29" s="2">
         <v>1706</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O29" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2">
-        <v>0.0133333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.0666666666666667</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2">
-        <v>579</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M30" s="2">
         <v>1706</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O30" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P30" s="2">
         <v>0.0133333333333333</v>
       </c>
       <c r="Q30" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2">
+        <v>579</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.0133333333333333</v>
+      </c>
+      <c r="Q31" s="2">
         <v>7.72</v>
       </c>
     </row>
@@ -2371,59 +2436,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2">
         <v>70.07</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="2">
+        <v>50</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>70.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2">
         <v>181.12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="2">
+        <v>51</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>181.12</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +2605,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2441,16 +2613,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1">
         <v>2203088</v>
@@ -2458,101 +2630,121 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
-        <v>49097.6</v>
+        <v>2203088</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2">
-        <v>255045</v>
+        <v>49097.6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2">
-        <v>88850</v>
+        <v>255045</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2">
-        <v>121227</v>
+        <v>88850</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2">
+        <v>121227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>83</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2">
         <v>655187</v>
       </c>
     </row>
@@ -2563,7 +2755,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2577,13 +2769,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2612,89 +2804,133 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2">
-        <v>409</v>
+        <v>880</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2">
-        <v>4090</v>
+        <v>8800</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" s="2">
         <v>1706</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N2" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2">
-        <v>17044</v>
+        <v>409</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2">
+        <v>4090</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17044</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
         <v>170440</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1706</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="H4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1706</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2704,6 +2940,168 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>118</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2713,150 +3111,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1">
+        <v>161450</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="E2" s="2">
+        <v>161450</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>118</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>119</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1">
-        <v>161450</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>851264(超過五年）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>集集郵局（第9k局）</t>
@@ -2518,7 +2521,7 @@
         <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>90</v>
@@ -2571,7 +2574,7 @@
         <v>97</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>90</v>
@@ -2613,13 +2616,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>59</v>
@@ -2633,13 +2636,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>59</v>
@@ -2653,13 +2656,13 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>59</v>
@@ -2673,13 +2676,13 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>58</v>
@@ -2693,13 +2696,13 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>58</v>
@@ -2713,13 +2716,13 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>58</v>
@@ -2733,13 +2736,13 @@
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>58</v>
@@ -2769,13 +2772,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2807,7 +2810,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>58</v>
@@ -2819,13 +2822,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2">
         <v>8800</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>90</v>
@@ -2851,7 +2854,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>58</v>
@@ -2863,13 +2866,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2">
         <v>4090</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>90</v>
@@ -2895,7 +2898,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>59</v>
@@ -2907,13 +2910,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2">
         <v>170440</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>90</v>
@@ -2949,14 +2952,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2966,16 +2969,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2983,22 +2986,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3016,16 +3019,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3033,16 +3036,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3050,16 +3053,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3067,16 +3070,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3084,16 +3087,16 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3114,19 +3117,19 @@
         <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1">
         <v>161450</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3137,19 +3140,19 @@
         <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2">
         <v>161450</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -319,37 +319,46 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>集集郵局（第9k局）</t>
   </si>
   <si>
+    <t>南投縣集集鎮農會信用部</t>
+  </si>
+  <si>
+    <t>集集郵局（第9支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行南投分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行集集分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>南投縣集集鎮農會信用部</t>
-  </si>
-  <si>
-    <t>集集郵局（第9支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行南投分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行集集分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>春源鋼鐵工業股份有限公司</t>
@@ -2608,13 +2617,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
@@ -2625,24 +2634,45 @@
         <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2203088</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>59</v>
@@ -2650,19 +2680,40 @@
       <c r="F2" s="2">
         <v>2203088</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>59</v>
@@ -2670,19 +2721,40 @@
       <c r="F3" s="2">
         <v>49097.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>58</v>
@@ -2690,19 +2762,40 @@
       <c r="F4" s="2">
         <v>255045</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>58</v>
@@ -2710,19 +2803,40 @@
       <c r="F5" s="2">
         <v>88850</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>58</v>
@@ -2730,25 +2844,67 @@
       <c r="F6" s="2">
         <v>121227</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="2">
         <v>655187</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1706</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2772,13 +2928,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2810,7 +2966,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>58</v>
@@ -2822,13 +2978,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2">
         <v>8800</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>90</v>
@@ -2854,7 +3010,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>58</v>
@@ -2866,13 +3022,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2">
         <v>4090</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>90</v>
@@ -2898,7 +3054,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>59</v>
@@ -2910,13 +3066,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2">
         <v>170440</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>90</v>
@@ -2952,14 +3108,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2969,16 +3125,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2986,22 +3142,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3019,16 +3175,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3036,16 +3192,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3053,16 +3209,16 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3070,16 +3226,16 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3087,16 +3243,16 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3117,19 +3273,19 @@
         <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1">
         <v>161450</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3140,19 +3296,19 @@
         <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2">
         <v>161450</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -11,16 +11,15 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -371,33 +370,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總洛</t>
-  </si>
-  <si>
-    <t>t額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -3100,73 +3072,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>110</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3175,84 +3080,84 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3276,21 +3181,21 @@
         <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1">
         <v>161450</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
@@ -3299,16 +3204,16 @@
         <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
         <v>161450</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
+++ b/legislator/property/output/normal/林明溱_2012-04-18_財產申報表_tmp80511.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -372,18 +372,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>國泰人壽鍾愛終身壽險(分期繳納）</t>
   </si>
   <si>
-    <t>573565元10期47740元第11期48082元第12期48083元</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>國泰住院醫療終身健康保險(分期缴納）</t>
   </si>
   <si>
@@ -393,13 +393,10 @@
     <t>南山康寧終身壽險（分期繳納）</t>
   </si>
   <si>
-    <t>84840元12次7070元</t>
-  </si>
-  <si>
-    <t>407100元第59次</t>
-  </si>
-  <si>
-    <t>816219元16期47977.元第17期48587元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>南投縣中山街202號4樓</t>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3072,49 +3072,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1706</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>121</v>
@@ -3125,13 +3161,31 @@
       <c r="E3" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1706</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>122</v>
@@ -3140,15 +3194,33 @@
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1706</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>123</v>
@@ -3157,7 +3229,25 @@
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1706</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="2">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3167,33 +3257,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1">
-        <v>161450</v>
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>130</v>
       </c>
@@ -3204,16 +3315,37 @@
         <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>161450</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>129</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1706</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="2">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
